--- a/LEC_EUROPA_2019.xlsx
+++ b/LEC_EUROPA_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3E84B2-F87D-40B7-9CF1-EE2AA8220FD6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957B0B28-E188-44F4-8EB8-37F114B9C333}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Games" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="155">
   <si>
     <t>Lanes</t>
   </si>
@@ -1552,10 +1552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C7BB09-4029-452F-B902-3394B5983D34}">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2570,6 +2570,39 @@
       </c>
       <c r="C92" s="82">
         <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C93" s="80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C94" s="80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="B95" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C95" s="80">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/LEC_EUROPA_2019.xlsx
+++ b/LEC_EUROPA_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957B0B28-E188-44F4-8EB8-37F114B9C333}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6A8CA9-79BE-4BB8-8606-CDFB8D034B55}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Games" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="155">
   <si>
     <t>Lanes</t>
   </si>
@@ -1110,7 +1110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1266,6 +1266,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1552,10 +1555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C7BB09-4029-452F-B902-3394B5983D34}">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2602,6 +2605,50 @@
         <v>66</v>
       </c>
       <c r="C95" s="80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="B96" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="C96" s="80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="B97" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="C97" s="80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="B98" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="C98" s="80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="B99" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C99" s="80">
         <v>10</v>
       </c>
     </row>

--- a/LEC_EUROPA_2019.xlsx
+++ b/LEC_EUROPA_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6A8CA9-79BE-4BB8-8606-CDFB8D034B55}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92228DFA-B3CE-4027-AA11-5E165ABC4262}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1110,7 +1110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1266,9 +1266,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1558,7 +1555,7 @@
   <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2583,7 +2580,7 @@
         <v>66</v>
       </c>
       <c r="C93" s="80">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -2594,7 +2591,7 @@
         <v>66</v>
       </c>
       <c r="C94" s="80">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -2605,51 +2602,51 @@
         <v>66</v>
       </c>
       <c r="C95" s="80">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="83" t="s">
+      <c r="A96" s="79" t="s">
         <v>67</v>
       </c>
       <c r="B96" s="45" t="s">
         <v>137</v>
       </c>
       <c r="C96" s="80">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="83" t="s">
+      <c r="A97" s="79" t="s">
         <v>67</v>
       </c>
       <c r="B97" s="45" t="s">
         <v>137</v>
       </c>
       <c r="C97" s="80">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="83" t="s">
+      <c r="A98" s="79" t="s">
         <v>67</v>
       </c>
       <c r="B98" s="45" t="s">
         <v>137</v>
       </c>
       <c r="C98" s="80">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="83" t="s">
+      <c r="A99" s="79" t="s">
         <v>137</v>
       </c>
       <c r="B99" s="45" t="s">
         <v>67</v>
       </c>
       <c r="C99" s="80">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/LEC_EUROPA_2019.xlsx
+++ b/LEC_EUROPA_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92228DFA-B3CE-4027-AA11-5E165ABC4262}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D8D407-97C3-4E80-8EF2-8CAB760D7269}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="155">
   <si>
     <t>Lanes</t>
   </si>
@@ -1110,7 +1110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1266,6 +1266,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1552,10 +1555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C7BB09-4029-452F-B902-3394B5983D34}">
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+      <selection activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2646,6 +2649,50 @@
         <v>67</v>
       </c>
       <c r="C99" s="80">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="B100" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C100" s="80">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="B101" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C101" s="80">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="B102" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C102" s="80">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="B103" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C103" s="80">
         <v>-1</v>
       </c>
     </row>

--- a/LEC_EUROPA_2019.xlsx
+++ b/LEC_EUROPA_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D8D407-97C3-4E80-8EF2-8CAB760D7269}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4C0CAB-1989-4788-BA0F-1451A7A411EE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Games" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="155">
   <si>
     <t>Lanes</t>
   </si>
@@ -1110,7 +1110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1269,6 +1269,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1555,10 +1556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C7BB09-4029-452F-B902-3394B5983D34}">
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G99" sqref="G99"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2653,7 +2654,7 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="83" t="s">
+      <c r="A100" s="79" t="s">
         <v>28</v>
       </c>
       <c r="B100" s="45" t="s">
@@ -2664,7 +2665,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="83" t="s">
+      <c r="A101" s="79" t="s">
         <v>28</v>
       </c>
       <c r="B101" s="45" t="s">
@@ -2675,7 +2676,7 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="83" t="s">
+      <c r="A102" s="79" t="s">
         <v>28</v>
       </c>
       <c r="B102" s="45" t="s">
@@ -2686,13 +2687,46 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="83" t="s">
+      <c r="A103" s="79" t="s">
         <v>67</v>
       </c>
       <c r="B103" s="45" t="s">
         <v>28</v>
       </c>
       <c r="C103" s="80">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="B104" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C104" s="84">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="B105" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C105" s="84">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="B106" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C106" s="84">
         <v>-1</v>
       </c>
     </row>

--- a/LEC_EUROPA_2019.xlsx
+++ b/LEC_EUROPA_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4C0CAB-1989-4788-BA0F-1451A7A411EE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B545151-7ABE-48FE-85FA-2CB1E4261C1E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Games" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="155">
   <si>
     <t>Lanes</t>
   </si>
@@ -1110,7 +1110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1270,6 +1270,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1556,10 +1563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C7BB09-4029-452F-B902-3394B5983D34}">
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2577,13 +2584,13 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="79" t="s">
+      <c r="A93" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="B93" s="45" t="s">
+      <c r="B93" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="C93" s="80">
+      <c r="C93" s="78">
         <v>-1</v>
       </c>
     </row>
@@ -2591,7 +2598,7 @@
       <c r="A94" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="B94" s="45" t="s">
+      <c r="B94" s="85" t="s">
         <v>66</v>
       </c>
       <c r="C94" s="80">
@@ -2602,7 +2609,7 @@
       <c r="A95" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="B95" s="45" t="s">
+      <c r="B95" s="85" t="s">
         <v>66</v>
       </c>
       <c r="C95" s="80">
@@ -2613,7 +2620,7 @@
       <c r="A96" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="B96" s="45" t="s">
+      <c r="B96" s="85" t="s">
         <v>137</v>
       </c>
       <c r="C96" s="80">
@@ -2624,7 +2631,7 @@
       <c r="A97" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="B97" s="45" t="s">
+      <c r="B97" s="85" t="s">
         <v>137</v>
       </c>
       <c r="C97" s="80">
@@ -2635,7 +2642,7 @@
       <c r="A98" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="B98" s="45" t="s">
+      <c r="B98" s="85" t="s">
         <v>137</v>
       </c>
       <c r="C98" s="80">
@@ -2646,7 +2653,7 @@
       <c r="A99" s="79" t="s">
         <v>137</v>
       </c>
-      <c r="B99" s="45" t="s">
+      <c r="B99" s="85" t="s">
         <v>67</v>
       </c>
       <c r="C99" s="80">
@@ -2657,7 +2664,7 @@
       <c r="A100" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="B100" s="45" t="s">
+      <c r="B100" s="85" t="s">
         <v>67</v>
       </c>
       <c r="C100" s="80">
@@ -2668,7 +2675,7 @@
       <c r="A101" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="B101" s="45" t="s">
+      <c r="B101" s="85" t="s">
         <v>67</v>
       </c>
       <c r="C101" s="80">
@@ -2679,7 +2686,7 @@
       <c r="A102" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="B102" s="45" t="s">
+      <c r="B102" s="85" t="s">
         <v>67</v>
       </c>
       <c r="C102" s="80">
@@ -2690,7 +2697,7 @@
       <c r="A103" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="B103" s="45" t="s">
+      <c r="B103" s="85" t="s">
         <v>28</v>
       </c>
       <c r="C103" s="80">
@@ -2701,7 +2708,7 @@
       <c r="A104" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="B104" s="45" t="s">
+      <c r="B104" s="85" t="s">
         <v>133</v>
       </c>
       <c r="C104" s="84">
@@ -2712,7 +2719,7 @@
       <c r="A105" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="B105" s="45" t="s">
+      <c r="B105" s="85" t="s">
         <v>133</v>
       </c>
       <c r="C105" s="84">
@@ -2723,10 +2730,87 @@
       <c r="A106" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="B106" s="45" t="s">
+      <c r="B106" s="85" t="s">
         <v>133</v>
       </c>
       <c r="C106" s="84">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="B107" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="C107" s="84">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="B108" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="C108" s="84">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="B109" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="C109" s="84">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="B110" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="C110" s="84">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="B111" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="C111" s="84">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="B112" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="C112" s="84">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="B113" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="C113" s="87">
         <v>-1</v>
       </c>
     </row>
